--- a/src/assets/WorkOrder template-2.xlsx
+++ b/src/assets/WorkOrder template-2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abira\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CE47FE-5751-411B-A238-AD570749CD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>buyer</t>
   </si>
@@ -48,9 +54,6 @@
     <t>knitFty</t>
   </si>
   <si>
-    <t>noRolls</t>
-  </si>
-  <si>
     <t>orderNo</t>
   </si>
   <si>
@@ -63,29 +66,23 @@
     <t>yarnType</t>
   </si>
   <si>
-    <t>Yarn Kg</t>
-  </si>
-  <si>
-    <t>Finish Kg</t>
-  </si>
-  <si>
-    <t>yarnLot</t>
-  </si>
-  <si>
-    <t>Greige Kg</t>
-  </si>
-  <si>
-    <t>yarnCount</t>
-  </si>
-  <si>
     <t>noDays</t>
+  </si>
+  <si>
+    <t>yarnKg</t>
+  </si>
+  <si>
+    <t>greigeKg</t>
+  </si>
+  <si>
+    <t>finishKg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,20 +91,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,29 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,124 +429,77 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
